--- a/Copy Excel Range to Worksheet/sampleExcelRange.xlsx
+++ b/Copy Excel Range to Worksheet/sampleExcelRange.xlsx
@@ -510,7 +510,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="8" width="11" customWidth="1"/>
+    <col min="2" max="8" width="9.140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:8" ht="26.25" x14ac:dyDescent="0.4">
